--- a/class_schedules/STATISTICAL METHODS (STAT).xlsx
+++ b/class_schedules/STATISTICAL METHODS (STAT).xlsx
@@ -14,24 +14,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
-  <si>
-    <t>215</t>
-  </si>
-  <si>
-    <t>221</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>209</t>
   </si>
   <si>
     <t>01</t>
   </si>
   <si>
-    <t>1786</t>
-  </si>
-  <si>
-    <t>14752</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>9981</t>
+  </si>
+  <si>
+    <t>13491</t>
+  </si>
+  <si>
+    <t>14074</t>
+  </si>
+  <si>
+    <t>14711</t>
   </si>
   <si>
     <t>4</t>
@@ -40,31 +49,46 @@
     <t>F</t>
   </si>
   <si>
-    <t>Piano Literature M</t>
-  </si>
-  <si>
-    <t>The Melodie TR</t>
-  </si>
-  <si>
-    <t>0400-0540pm</t>
-  </si>
-  <si>
-    <t>1200-0115pm</t>
-  </si>
-  <si>
-    <t>CBIB</t>
-  </si>
-  <si>
-    <t>325</t>
-  </si>
-  <si>
-    <t>237</t>
-  </si>
-  <si>
-    <t>Schulze Sean</t>
-  </si>
-  <si>
-    <t>Bandy Thomas</t>
+    <t>Introduction to Statistics</t>
+  </si>
+  <si>
+    <t>Introduction to Biostatistics</t>
+  </si>
+  <si>
+    <t>Statistics and Modeling</t>
+  </si>
+  <si>
+    <t>Data Computing/Visualization</t>
+  </si>
+  <si>
+    <t>MWF</t>
+  </si>
+  <si>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>0800-0850am</t>
+  </si>
+  <si>
+    <t>0900-0950am</t>
+  </si>
+  <si>
+    <t>1100-1150am</t>
+  </si>
+  <si>
+    <t>0300-0420pm</t>
+  </si>
+  <si>
+    <t>TBA</t>
+  </si>
+  <si>
+    <t>Bosch Robert</t>
+  </si>
+  <si>
+    <t>Witmer Jeffrey</t>
+  </si>
+  <si>
+    <t>Dawson Colin</t>
   </si>
 </sst>
 </file>
@@ -422,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -468,31 +492,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -503,31 +527,101 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="G3" t="s">
+      <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="H3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
         <v>14</v>
       </c>
-      <c r="K3" t="s">
+      <c r="H5" t="s">
         <v>16</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
